--- a/july2025/Cash cycle.xlsx
+++ b/july2025/Cash cycle.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MyFitnessBag\Desktop\maged\june 2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MyFitnessBag\Desktop\myfitnessbag\july2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAB07ADD-0DDA-4755-8169-CD8129099718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{495F89F3-3A46-4F14-B768-2F52DE691A11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="121">
   <si>
     <t>MFB_Delivery</t>
   </si>
@@ -3098,8 +3098,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN56"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3:K7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3462,12 +3462,22 @@
       <c r="AC5" s="7"/>
       <c r="AD5" s="12"/>
       <c r="AE5" s="9"/>
-      <c r="AH5" s="12"/>
-      <c r="AI5" s="12"/>
-      <c r="AJ5" s="9"/>
-      <c r="AL5" s="7"/>
+      <c r="AH5" s="88">
+        <v>45847</v>
+      </c>
+      <c r="AI5" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="AJ5" s="9">
+        <v>540</v>
+      </c>
+      <c r="AL5" s="7">
+        <v>45847</v>
+      </c>
       <c r="AM5" s="10"/>
-      <c r="AN5" s="85"/>
+      <c r="AN5" s="85">
+        <v>3352.31</v>
+      </c>
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
@@ -3509,9 +3519,15 @@
       <c r="AC6" s="7"/>
       <c r="AD6" s="12"/>
       <c r="AE6" s="17"/>
-      <c r="AH6" s="10"/>
-      <c r="AI6" s="10"/>
-      <c r="AJ6" s="9"/>
+      <c r="AH6" s="60">
+        <v>45847</v>
+      </c>
+      <c r="AI6" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="AJ6" s="9">
+        <v>250</v>
+      </c>
       <c r="AL6" s="7"/>
       <c r="AM6" s="10"/>
       <c r="AN6" s="85"/>
@@ -3576,9 +3592,13 @@
       <c r="F8" s="10"/>
       <c r="G8" s="9"/>
       <c r="H8"/>
-      <c r="I8" s="13"/>
+      <c r="I8" s="13">
+        <v>45847</v>
+      </c>
       <c r="J8" s="10"/>
-      <c r="K8" s="9"/>
+      <c r="K8" s="9">
+        <v>14140.85</v>
+      </c>
       <c r="L8"/>
       <c r="M8" s="7"/>
       <c r="N8" s="10"/>
@@ -3647,9 +3667,13 @@
       <c r="AN9" s="9"/>
     </row>
     <row r="10" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
+      <c r="A10" s="7">
+        <v>45847</v>
+      </c>
       <c r="B10" s="8"/>
-      <c r="C10" s="9"/>
+      <c r="C10" s="9">
+        <v>7316</v>
+      </c>
       <c r="D10"/>
       <c r="E10" s="14"/>
       <c r="F10" s="10"/>
@@ -4482,7 +4506,7 @@
       <c r="B33" s="10"/>
       <c r="C33" s="9">
         <f>SUBTOTAL(9,C3:C32)</f>
-        <v>38131</v>
+        <v>45447</v>
       </c>
       <c r="D33"/>
       <c r="E33" s="10"/>
@@ -4496,7 +4520,7 @@
       <c r="J33" s="10"/>
       <c r="K33" s="9">
         <f>SUBTOTAL(9,K3:K32)-'Cash IN 6'!K33</f>
-        <v>29846.550000000003</v>
+        <v>43987.400000000009</v>
       </c>
       <c r="L33"/>
       <c r="M33" s="10"/>
@@ -4534,7 +4558,7 @@
       <c r="AM33" s="10"/>
       <c r="AN33" s="9">
         <f>SUBTOTAL(9,AN3:AN32)</f>
-        <v>16419.53</v>
+        <v>19771.84</v>
       </c>
     </row>
     <row r="34" spans="1:40" x14ac:dyDescent="0.25">
@@ -4613,7 +4637,7 @@
       </c>
       <c r="B36" s="20">
         <f>C33</f>
-        <v>38131</v>
+        <v>45447</v>
       </c>
       <c r="C36"/>
       <c r="D36"/>
@@ -4695,7 +4719,7 @@
       </c>
       <c r="B38" s="20">
         <f>K33</f>
-        <v>29846.550000000003</v>
+        <v>43987.400000000009</v>
       </c>
       <c r="C38"/>
       <c r="D38"/>
@@ -4885,7 +4909,7 @@
       </c>
       <c r="B43" s="20">
         <f>AN33</f>
-        <v>16419.53</v>
+        <v>19771.84</v>
       </c>
       <c r="C43"/>
       <c r="D43"/>
@@ -4999,7 +5023,7 @@
       </c>
       <c r="B46" s="22">
         <f>SUBTOTAL(9,B36:B45)</f>
-        <v>113999.08</v>
+        <v>138808.24000000002</v>
       </c>
       <c r="C46"/>
       <c r="D46"/>
@@ -5075,7 +5099,7 @@
       </c>
       <c r="B48" s="23">
         <f>B46+B47</f>
-        <v>134624.41</v>
+        <v>159433.57</v>
       </c>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.25">
@@ -5105,8 +5129,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A080234-7BCC-4A92-982F-513E7622D516}">
   <dimension ref="A1:T1048526"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+    <sheetView topLeftCell="K1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5234,8 +5258,8 @@
         <v>78</v>
       </c>
       <c r="P3" s="9">
-        <f>104250-38518-22000-969-4760-15000-700-200-11000-8000-4300+20000</f>
-        <v>18803</v>
+        <f>104250-38518-22000-969-4760-15000-700-200-11000-8000+20000-10000</f>
+        <v>13103</v>
       </c>
       <c r="R3" s="57">
         <v>45841</v>
@@ -5317,11 +5341,15 @@
       <c r="T5" s="41"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
+      <c r="A6" s="7">
+        <v>45847</v>
+      </c>
       <c r="B6" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="9"/>
+      <c r="C6" s="9">
+        <v>10000</v>
+      </c>
       <c r="F6" s="60">
         <v>45846</v>
       </c>
@@ -5786,11 +5814,15 @@
       <c r="F22" s="10"/>
       <c r="G22" s="10"/>
       <c r="H22" s="9"/>
-      <c r="J22" s="13"/>
+      <c r="J22" s="13">
+        <v>45847</v>
+      </c>
       <c r="K22" s="28" t="s">
         <v>99</v>
       </c>
-      <c r="L22" s="9"/>
+      <c r="L22" s="9">
+        <v>160</v>
+      </c>
       <c r="M22" s="67"/>
       <c r="N22" s="73"/>
       <c r="O22" s="9"/>
@@ -6004,9 +6036,15 @@
       <c r="F30" s="10"/>
       <c r="G30" s="10"/>
       <c r="H30" s="9"/>
-      <c r="J30" s="13"/>
-      <c r="K30" s="34"/>
-      <c r="L30" s="30"/>
+      <c r="J30" s="13">
+        <v>45847</v>
+      </c>
+      <c r="K30" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="L30" s="9">
+        <v>50</v>
+      </c>
       <c r="M30" s="67"/>
       <c r="N30" s="73"/>
       <c r="O30" s="9"/>
@@ -6141,9 +6179,15 @@
       <c r="P37" s="30"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A38" s="7"/>
-      <c r="B38" s="28"/>
-      <c r="C38" s="9"/>
+      <c r="A38" s="7">
+        <v>45847</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C38" s="9">
+        <v>790</v>
+      </c>
       <c r="J38" s="13"/>
       <c r="K38" s="34"/>
       <c r="L38" s="30"/>
@@ -6172,7 +6216,7 @@
       <c r="K40" s="10"/>
       <c r="L40" s="40">
         <f>SUBTOTAL(9,L3:L37)</f>
-        <v>3830</v>
+        <v>4040</v>
       </c>
       <c r="M40" s="68"/>
       <c r="N40" s="74"/>
@@ -6209,7 +6253,7 @@
       <c r="O43" s="40"/>
       <c r="P43" s="40">
         <f>SUM(P1:P42)</f>
-        <v>23132</v>
+        <v>17432</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
@@ -6294,7 +6338,7 @@
       <c r="B56" s="10"/>
       <c r="C56" s="40">
         <f>SUBTOTAL(9,C3:C55)</f>
-        <v>112507</v>
+        <v>123297</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -6303,7 +6347,7 @@
       </c>
       <c r="B60" s="20">
         <f>C56</f>
-        <v>112507</v>
+        <v>123297</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -6312,7 +6356,7 @@
       </c>
       <c r="B61" s="20">
         <f>SUM(H35,L40,P43)</f>
-        <v>75347</v>
+        <v>69857</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -6330,7 +6374,7 @@
       </c>
       <c r="B63" s="44">
         <f>SUM(B60:B62)</f>
-        <v>199854</v>
+        <v>205154</v>
       </c>
     </row>
     <row r="1048526" spans="19:19" x14ac:dyDescent="0.25">
@@ -6347,7 +6391,7 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6386,7 +6430,7 @@
       </c>
       <c r="F2" s="61">
         <f>'Cash Out'!C56</f>
-        <v>112507</v>
+        <v>123297</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -6395,7 +6439,7 @@
       </c>
       <c r="B3" s="61">
         <f>SUM('Cash IN'!B37,'Cash IN'!B38,'Cash IN'!B40,'Cash IN'!B41,'Cash IN'!B42,'Cash IN'!B43)</f>
-        <v>75868.08</v>
+        <v>93361.24</v>
       </c>
       <c r="E3" t="s">
         <v>62</v>
@@ -6411,14 +6455,14 @@
       </c>
       <c r="B4" s="61">
         <f>'Cash IN'!B36</f>
-        <v>38131</v>
+        <v>45447</v>
       </c>
       <c r="E4" t="s">
         <v>64</v>
       </c>
       <c r="F4" s="61">
         <f>'Cash Out'!L40</f>
-        <v>3830</v>
+        <v>4040</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -6434,7 +6478,7 @@
       </c>
       <c r="F5" s="61">
         <f>'Cash Out'!P43</f>
-        <v>23132</v>
+        <v>17432</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -6460,7 +6504,7 @@
       </c>
       <c r="F7" s="66">
         <f>SUM(F2:F6)</f>
-        <v>199854</v>
+        <v>205154</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -6469,7 +6513,7 @@
       </c>
       <c r="B8" s="66">
         <f>SUM(B2:B7)</f>
-        <v>134624.41</v>
+        <v>159433.57</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -6487,7 +6531,7 @@
       </c>
       <c r="B10" s="66">
         <f>B8-F7</f>
-        <v>-65229.59</v>
+        <v>-45720.429999999993</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -6515,7 +6559,7 @@
       </c>
       <c r="B16" s="47"/>
       <c r="C16" s="61">
-        <v>3019</v>
+        <v>5035</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -6574,7 +6618,7 @@
         <v>44</v>
       </c>
       <c r="C23" s="90">
-        <v>2231.2199999999998</v>
+        <v>19724.38</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -6583,7 +6627,7 @@
       </c>
       <c r="C24" s="61">
         <f>SUM(C16:C23)</f>
-        <v>7147.83</v>
+        <v>26656.99</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">

--- a/july2025/Cash cycle.xlsx
+++ b/july2025/Cash cycle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MyFitnessBag\Desktop\myfitnessbag\july2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{495F89F3-3A46-4F14-B768-2F52DE691A11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{418E496E-3072-413E-9438-0BC45408F2AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="124">
   <si>
     <t>MFB_Delivery</t>
   </si>
@@ -391,6 +391,15 @@
   </si>
   <si>
     <t>شراء شرنكات و برطمنات</t>
+  </si>
+  <si>
+    <t>nahas pharmacy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ahmed zero </t>
+  </si>
+  <si>
+    <t>شحن اوبر ماصل زون</t>
   </si>
 </sst>
 </file>
@@ -495,13 +504,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF646363"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -511,6 +513,13 @@
       <sz val="9"/>
       <color rgb="FF646363"/>
       <name val="Roboto"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF646363"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -774,10 +783,10 @@
     <xf numFmtId="16" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -3032,7 +3041,7 @@
         <v>14</v>
       </c>
       <c r="B47" s="22"/>
-      <c r="C47" s="91"/>
+      <c r="C47" s="90"/>
       <c r="D47"/>
       <c r="E47"/>
       <c r="F47"/>
@@ -3098,8 +3107,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="Y4" sqref="Y4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3317,7 +3326,7 @@
         <v>45845</v>
       </c>
       <c r="F3" s="10"/>
-      <c r="G3" s="92">
+      <c r="G3" s="91">
         <v>67022</v>
       </c>
       <c r="H3"/>
@@ -3341,9 +3350,13 @@
       <c r="V3" s="10"/>
       <c r="W3" s="9"/>
       <c r="X3"/>
-      <c r="Y3" s="7"/>
+      <c r="Y3" s="7">
+        <v>45848</v>
+      </c>
       <c r="Z3" s="10"/>
-      <c r="AA3" s="52"/>
+      <c r="AA3" s="52">
+        <v>338.44</v>
+      </c>
       <c r="AB3"/>
       <c r="AC3" s="62"/>
       <c r="AD3" s="63"/>
@@ -3374,9 +3387,13 @@
         <v>12088</v>
       </c>
       <c r="D4"/>
-      <c r="E4" s="13"/>
+      <c r="E4" s="13">
+        <v>45848</v>
+      </c>
       <c r="F4" s="10"/>
-      <c r="G4" s="52"/>
+      <c r="G4" s="52">
+        <v>24934</v>
+      </c>
       <c r="H4"/>
       <c r="I4" s="7">
         <v>45810</v>
@@ -3528,9 +3545,13 @@
       <c r="AJ6" s="9">
         <v>250</v>
       </c>
-      <c r="AL6" s="7"/>
+      <c r="AL6" s="7">
+        <v>45848</v>
+      </c>
       <c r="AM6" s="10"/>
-      <c r="AN6" s="85"/>
+      <c r="AN6" s="85">
+        <v>286.04000000000002</v>
+      </c>
     </row>
     <row r="7" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
@@ -3639,9 +3660,13 @@
       <c r="F9" s="10"/>
       <c r="G9" s="9"/>
       <c r="H9"/>
-      <c r="I9" s="13"/>
+      <c r="I9" s="13">
+        <v>45848</v>
+      </c>
       <c r="J9" s="10"/>
-      <c r="K9" s="9"/>
+      <c r="K9" s="9">
+        <v>4378.22</v>
+      </c>
       <c r="L9"/>
       <c r="M9" s="7"/>
       <c r="N9" s="10"/>
@@ -3749,7 +3774,7 @@
       <c r="D12"/>
       <c r="E12" s="14"/>
       <c r="F12" s="10"/>
-      <c r="G12" s="93"/>
+      <c r="G12" s="92"/>
       <c r="H12"/>
       <c r="I12" s="7"/>
       <c r="J12" s="10"/>
@@ -4513,14 +4538,14 @@
       <c r="F33" s="10"/>
       <c r="G33" s="9">
         <f>SUBTOTAL(9,G3:G32)-'Cash IN 6'!G33</f>
-        <v>29602</v>
+        <v>54536</v>
       </c>
       <c r="H33"/>
       <c r="I33" s="10"/>
       <c r="J33" s="10"/>
       <c r="K33" s="9">
         <f>SUBTOTAL(9,K3:K32)-'Cash IN 6'!K33</f>
-        <v>43987.400000000009</v>
+        <v>48365.62000000001</v>
       </c>
       <c r="L33"/>
       <c r="M33" s="10"/>
@@ -4548,7 +4573,7 @@
       <c r="Z33" s="10"/>
       <c r="AA33" s="9">
         <f>SUBTOTAL(9,AA3:AA32)</f>
-        <v>0</v>
+        <v>338.44</v>
       </c>
       <c r="AB33"/>
       <c r="AC33"/>
@@ -4558,7 +4583,7 @@
       <c r="AM33" s="10"/>
       <c r="AN33" s="9">
         <f>SUBTOTAL(9,AN3:AN32)</f>
-        <v>19771.84</v>
+        <v>20057.88</v>
       </c>
     </row>
     <row r="34" spans="1:40" x14ac:dyDescent="0.25">
@@ -4678,7 +4703,7 @@
       </c>
       <c r="B37" s="20">
         <f>G33</f>
-        <v>29602</v>
+        <v>54536</v>
       </c>
       <c r="C37"/>
       <c r="D37"/>
@@ -4719,7 +4744,7 @@
       </c>
       <c r="B38" s="20">
         <f>K33</f>
-        <v>43987.400000000009</v>
+        <v>48365.62000000001</v>
       </c>
       <c r="C38"/>
       <c r="D38"/>
@@ -4871,7 +4896,7 @@
       </c>
       <c r="B42" s="20">
         <f>AA33</f>
-        <v>0</v>
+        <v>338.44</v>
       </c>
       <c r="C42"/>
       <c r="D42"/>
@@ -4909,7 +4934,7 @@
       </c>
       <c r="B43" s="20">
         <f>AN33</f>
-        <v>19771.84</v>
+        <v>20057.88</v>
       </c>
       <c r="C43"/>
       <c r="D43"/>
@@ -5023,7 +5048,7 @@
       </c>
       <c r="B46" s="22">
         <f>SUBTOTAL(9,B36:B45)</f>
-        <v>138808.24000000002</v>
+        <v>168744.94</v>
       </c>
       <c r="C46"/>
       <c r="D46"/>
@@ -5099,7 +5124,7 @@
       </c>
       <c r="B48" s="23">
         <f>B46+B47</f>
-        <v>159433.57</v>
+        <v>189370.27000000002</v>
       </c>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.25">
@@ -5129,8 +5154,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A080234-7BCC-4A92-982F-513E7622D516}">
   <dimension ref="A1:T1048526"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+    <sheetView topLeftCell="A7" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5258,8 +5283,8 @@
         <v>78</v>
       </c>
       <c r="P3" s="9">
-        <f>104250-38518-22000-969-4760-15000-700-200-11000-8000+20000-10000</f>
-        <v>13103</v>
+        <f>104250-38518-22000-969-4760-15000-700-200-11000-8000+20000-10000-6000-6000+15000+29000-40067.5</f>
+        <v>5035.5</v>
       </c>
       <c r="R3" s="57">
         <v>45841</v>
@@ -5334,11 +5359,15 @@
         <v>52</v>
       </c>
       <c r="P5" s="9"/>
-      <c r="R5" s="13"/>
+      <c r="R5" s="13">
+        <v>45847</v>
+      </c>
       <c r="S5" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="T5" s="41"/>
+      <c r="T5" s="41">
+        <v>6000</v>
+      </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
@@ -5370,9 +5399,13 @@
         <v>87</v>
       </c>
       <c r="P6" s="9"/>
-      <c r="R6" s="13"/>
+      <c r="R6" s="13">
+        <v>45839</v>
+      </c>
       <c r="S6" s="28"/>
-      <c r="T6" s="40"/>
+      <c r="T6" s="40">
+        <v>6000</v>
+      </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
@@ -5999,7 +6032,7 @@
       <c r="S28" s="34"/>
       <c r="T28" s="36">
         <f>SUM(T2:T27)</f>
-        <v>12000</v>
+        <v>24000</v>
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
@@ -6063,9 +6096,15 @@
       <c r="F31" s="10"/>
       <c r="G31" s="10"/>
       <c r="H31" s="9"/>
-      <c r="J31" s="13"/>
-      <c r="K31" s="34"/>
-      <c r="L31" s="30"/>
+      <c r="J31" s="13">
+        <v>45848</v>
+      </c>
+      <c r="K31" s="34" t="s">
+        <v>123</v>
+      </c>
+      <c r="L31" s="30">
+        <v>50</v>
+      </c>
       <c r="M31" s="67"/>
       <c r="N31" s="73"/>
       <c r="O31" s="9"/>
@@ -6197,9 +6236,15 @@
       <c r="P38" s="30"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A39" s="7"/>
-      <c r="B39" s="28"/>
-      <c r="C39" s="9"/>
+      <c r="A39" s="7">
+        <v>45848</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C39" s="9">
+        <v>30</v>
+      </c>
       <c r="J39" s="18"/>
       <c r="K39" s="32"/>
       <c r="L39" s="9"/>
@@ -6209,14 +6254,20 @@
       <c r="P39" s="30"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A40" s="7"/>
-      <c r="B40" s="28"/>
-      <c r="C40" s="9"/>
+      <c r="A40" s="7">
+        <v>45848</v>
+      </c>
+      <c r="B40" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="C40" s="9">
+        <v>15000</v>
+      </c>
       <c r="J40" s="10"/>
       <c r="K40" s="10"/>
       <c r="L40" s="40">
         <f>SUBTOTAL(9,L3:L37)</f>
-        <v>4040</v>
+        <v>4090</v>
       </c>
       <c r="M40" s="68"/>
       <c r="N40" s="74"/>
@@ -6224,9 +6275,15 @@
       <c r="P40" s="30"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A41" s="7"/>
-      <c r="B41" s="28"/>
-      <c r="C41" s="9"/>
+      <c r="A41" s="7">
+        <v>45848</v>
+      </c>
+      <c r="B41" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="C41" s="9">
+        <v>15067.5</v>
+      </c>
       <c r="L41" s="4"/>
       <c r="M41" s="68"/>
       <c r="N41" s="74"/>
@@ -6234,9 +6291,15 @@
       <c r="P41" s="30"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A42" s="7"/>
-      <c r="B42" s="28"/>
-      <c r="C42" s="9"/>
+      <c r="A42" s="7">
+        <v>45848</v>
+      </c>
+      <c r="B42" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="C42" s="9">
+        <v>10000</v>
+      </c>
       <c r="L42" s="42"/>
       <c r="M42" s="67"/>
       <c r="N42" s="73"/>
@@ -6253,7 +6316,7 @@
       <c r="O43" s="40"/>
       <c r="P43" s="40">
         <f>SUM(P1:P42)</f>
-        <v>17432</v>
+        <v>9364.5</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
@@ -6338,7 +6401,7 @@
       <c r="B56" s="10"/>
       <c r="C56" s="40">
         <f>SUBTOTAL(9,C3:C55)</f>
-        <v>123297</v>
+        <v>163394.5</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -6347,7 +6410,7 @@
       </c>
       <c r="B60" s="20">
         <f>C56</f>
-        <v>123297</v>
+        <v>163394.5</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -6356,7 +6419,7 @@
       </c>
       <c r="B61" s="20">
         <f>SUM(H35,L40,P43)</f>
-        <v>69857</v>
+        <v>61839.5</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -6365,7 +6428,7 @@
       </c>
       <c r="B62" s="20">
         <f>T28</f>
-        <v>12000</v>
+        <v>24000</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -6374,7 +6437,7 @@
       </c>
       <c r="B63" s="44">
         <f>SUM(B60:B62)</f>
-        <v>205154</v>
+        <v>249234</v>
       </c>
     </row>
     <row r="1048526" spans="19:19" x14ac:dyDescent="0.25">
@@ -6391,7 +6454,7 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6430,7 +6493,7 @@
       </c>
       <c r="F2" s="61">
         <f>'Cash Out'!C56</f>
-        <v>123297</v>
+        <v>163394.5</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -6439,7 +6502,7 @@
       </c>
       <c r="B3" s="61">
         <f>SUM('Cash IN'!B37,'Cash IN'!B38,'Cash IN'!B40,'Cash IN'!B41,'Cash IN'!B42,'Cash IN'!B43)</f>
-        <v>93361.24</v>
+        <v>123297.94000000002</v>
       </c>
       <c r="E3" t="s">
         <v>62</v>
@@ -6462,7 +6525,7 @@
       </c>
       <c r="F4" s="61">
         <f>'Cash Out'!L40</f>
-        <v>4040</v>
+        <v>4090</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -6478,7 +6541,7 @@
       </c>
       <c r="F5" s="61">
         <f>'Cash Out'!P43</f>
-        <v>17432</v>
+        <v>9364.5</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -6488,7 +6551,7 @@
       </c>
       <c r="F6" s="61">
         <f>'Cash Out'!T28</f>
-        <v>12000</v>
+        <v>24000</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -6504,7 +6567,7 @@
       </c>
       <c r="F7" s="66">
         <f>SUM(F2:F6)</f>
-        <v>205154</v>
+        <v>249234</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -6513,7 +6576,7 @@
       </c>
       <c r="B8" s="66">
         <f>SUM(B2:B7)</f>
-        <v>159433.57</v>
+        <v>189370.27000000002</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -6531,7 +6594,7 @@
       </c>
       <c r="B10" s="66">
         <f>B8-F7</f>
-        <v>-45720.429999999993</v>
+        <v>-59863.729999999981</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -6559,7 +6622,7 @@
       </c>
       <c r="B16" s="47"/>
       <c r="C16" s="61">
-        <v>5035</v>
+        <v>4955</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -6617,8 +6680,8 @@
       <c r="A23" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="90">
-        <v>19724.38</v>
+      <c r="C23" s="93">
+        <v>5661.08</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -6627,7 +6690,7 @@
       </c>
       <c r="C24" s="61">
         <f>SUM(C16:C23)</f>
-        <v>26656.99</v>
+        <v>12513.69</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -6636,11 +6699,11 @@
       </c>
       <c r="C26" s="61">
         <f>B10+B9-C24</f>
-        <v>0</v>
+        <v>1.6370904631912708E-11</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="14" type="noConversion"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="3">
     <tablePart r:id="rId1"/>

--- a/july2025/Cash cycle.xlsx
+++ b/july2025/Cash cycle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MyFitnessBag\Desktop\myfitnessbag\july2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{418E496E-3072-413E-9438-0BC45408F2AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA18A0F0-3759-4812-A484-CF5E19F48394}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="127">
   <si>
     <t>MFB_Delivery</t>
   </si>
@@ -400,6 +400,15 @@
   </si>
   <si>
     <t>شحن اوبر ماصل زون</t>
+  </si>
+  <si>
+    <t>mahmoad animal cut</t>
+  </si>
+  <si>
+    <t>شحن مندوب برو ماصل</t>
+  </si>
+  <si>
+    <t>bank interest</t>
   </si>
 </sst>
 </file>
@@ -1153,7 +1162,7 @@
   <dimension ref="A1:AN56"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1367,7 +1376,7 @@
       </c>
       <c r="F3" s="10"/>
       <c r="G3" s="85">
-        <v>37420</v>
+        <v>50718.5</v>
       </c>
       <c r="H3"/>
       <c r="I3" s="7">
@@ -2494,7 +2503,7 @@
       <c r="F33" s="10"/>
       <c r="G33" s="9">
         <f>SUBTOTAL(9,G3:G32)</f>
-        <v>37420</v>
+        <v>50718.5</v>
       </c>
       <c r="H33"/>
       <c r="I33" s="10"/>
@@ -2659,7 +2668,7 @@
       </c>
       <c r="B37" s="20">
         <f>G33</f>
-        <v>37420</v>
+        <v>50718.5</v>
       </c>
       <c r="C37"/>
       <c r="D37"/>
@@ -3004,7 +3013,7 @@
       </c>
       <c r="B46" s="22">
         <f>SUBTOTAL(9,B36:B45)</f>
-        <v>72377.42</v>
+        <v>85675.92</v>
       </c>
       <c r="C46"/>
       <c r="D46"/>
@@ -3077,7 +3086,7 @@
       </c>
       <c r="B48" s="23">
         <f>B46+B47</f>
-        <v>72377.42</v>
+        <v>85675.92</v>
       </c>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.25">
@@ -3107,8 +3116,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN56"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="Y4" sqref="Y4"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3358,9 +3367,15 @@
         <v>338.44</v>
       </c>
       <c r="AB3"/>
-      <c r="AC3" s="62"/>
-      <c r="AD3" s="63"/>
-      <c r="AE3" s="55"/>
+      <c r="AC3" s="62">
+        <v>45848</v>
+      </c>
+      <c r="AD3" s="63" t="s">
+        <v>126</v>
+      </c>
+      <c r="AE3" s="55">
+        <v>254.79</v>
+      </c>
       <c r="AH3" s="49">
         <v>45841</v>
       </c>
@@ -3596,9 +3611,13 @@
       <c r="AH7" s="10"/>
       <c r="AI7" s="10"/>
       <c r="AJ7" s="10"/>
-      <c r="AL7" s="7"/>
+      <c r="AL7" s="7">
+        <v>45851</v>
+      </c>
       <c r="AM7" s="10"/>
-      <c r="AN7" s="9"/>
+      <c r="AN7" s="9">
+        <v>1407.85</v>
+      </c>
     </row>
     <row r="8" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
@@ -3704,9 +3723,13 @@
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
       <c r="H10"/>
-      <c r="I10" s="13"/>
+      <c r="I10" s="13">
+        <v>45851</v>
+      </c>
       <c r="J10" s="10"/>
-      <c r="K10" s="9"/>
+      <c r="K10" s="9">
+        <v>2067.34</v>
+      </c>
       <c r="L10"/>
       <c r="M10" s="7"/>
       <c r="N10" s="10"/>
@@ -3732,9 +3755,13 @@
       <c r="AN10" s="9"/>
     </row>
     <row r="11" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
+      <c r="A11" s="7">
+        <v>45850</v>
+      </c>
       <c r="B11" s="8"/>
-      <c r="C11" s="9"/>
+      <c r="C11" s="9">
+        <v>4899</v>
+      </c>
       <c r="D11"/>
       <c r="E11" s="14"/>
       <c r="F11" s="10"/>
@@ -3768,9 +3795,13 @@
       <c r="AN11" s="9"/>
     </row>
     <row r="12" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A12" s="13"/>
+      <c r="A12" s="13">
+        <v>45851</v>
+      </c>
       <c r="B12" s="8"/>
-      <c r="C12" s="9"/>
+      <c r="C12" s="9">
+        <v>702</v>
+      </c>
       <c r="D12"/>
       <c r="E12" s="14"/>
       <c r="F12" s="10"/>
@@ -3804,9 +3835,15 @@
       <c r="AN12" s="9"/>
     </row>
     <row r="13" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A13" s="13"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="9"/>
+      <c r="A13" s="13">
+        <v>45850</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="C13" s="9">
+        <v>700</v>
+      </c>
       <c r="D13"/>
       <c r="E13" s="14"/>
       <c r="F13" s="10"/>
@@ -4232,7 +4269,7 @@
       <c r="AD24" s="10"/>
       <c r="AE24" s="9">
         <f>SUBTOTAL(9,AE3:AE23)</f>
-        <v>0</v>
+        <v>254.79</v>
       </c>
       <c r="AL24" s="13"/>
       <c r="AM24" s="10"/>
@@ -4531,21 +4568,21 @@
       <c r="B33" s="10"/>
       <c r="C33" s="9">
         <f>SUBTOTAL(9,C3:C32)</f>
-        <v>45447</v>
+        <v>51748</v>
       </c>
       <c r="D33"/>
       <c r="E33" s="10"/>
       <c r="F33" s="10"/>
       <c r="G33" s="9">
         <f>SUBTOTAL(9,G3:G32)-'Cash IN 6'!G33</f>
-        <v>54536</v>
+        <v>41237.5</v>
       </c>
       <c r="H33"/>
       <c r="I33" s="10"/>
       <c r="J33" s="10"/>
       <c r="K33" s="9">
         <f>SUBTOTAL(9,K3:K32)-'Cash IN 6'!K33</f>
-        <v>48365.62000000001</v>
+        <v>50432.960000000006</v>
       </c>
       <c r="L33"/>
       <c r="M33" s="10"/>
@@ -4583,7 +4620,7 @@
       <c r="AM33" s="10"/>
       <c r="AN33" s="9">
         <f>SUBTOTAL(9,AN3:AN32)</f>
-        <v>20057.88</v>
+        <v>21465.73</v>
       </c>
     </row>
     <row r="34" spans="1:40" x14ac:dyDescent="0.25">
@@ -4662,7 +4699,7 @@
       </c>
       <c r="B36" s="20">
         <f>C33</f>
-        <v>45447</v>
+        <v>51748</v>
       </c>
       <c r="C36"/>
       <c r="D36"/>
@@ -4703,7 +4740,7 @@
       </c>
       <c r="B37" s="20">
         <f>G33</f>
-        <v>54536</v>
+        <v>41237.5</v>
       </c>
       <c r="C37"/>
       <c r="D37"/>
@@ -4744,7 +4781,7 @@
       </c>
       <c r="B38" s="20">
         <f>K33</f>
-        <v>48365.62000000001</v>
+        <v>50432.960000000006</v>
       </c>
       <c r="C38"/>
       <c r="D38"/>
@@ -4934,7 +4971,7 @@
       </c>
       <c r="B43" s="20">
         <f>AN33</f>
-        <v>20057.88</v>
+        <v>21465.73</v>
       </c>
       <c r="C43"/>
       <c r="D43"/>
@@ -5010,7 +5047,7 @@
       </c>
       <c r="B45" s="20">
         <f>AE24</f>
-        <v>0</v>
+        <v>254.79</v>
       </c>
       <c r="C45"/>
       <c r="D45"/>
@@ -5048,7 +5085,7 @@
       </c>
       <c r="B46" s="22">
         <f>SUBTOTAL(9,B36:B45)</f>
-        <v>168744.94</v>
+        <v>165477.42000000004</v>
       </c>
       <c r="C46"/>
       <c r="D46"/>
@@ -5124,7 +5161,7 @@
       </c>
       <c r="B48" s="23">
         <f>B46+B47</f>
-        <v>189370.27000000002</v>
+        <v>186102.75000000006</v>
       </c>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.25">
@@ -5154,8 +5191,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A080234-7BCC-4A92-982F-513E7622D516}">
   <dimension ref="A1:T1048526"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+    <sheetView topLeftCell="L1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5283,8 +5320,8 @@
         <v>78</v>
       </c>
       <c r="P3" s="9">
-        <f>104250-38518-22000-969-4760-15000-700-200-11000-8000+20000-10000-6000-6000+15000+29000-40067.5</f>
-        <v>5035.5</v>
+        <f>104250-38518-22000-969-4760-15000-700-200-11000-8000+20000-10000-6000-6000+15000+29000-40067.5+400+5900</f>
+        <v>11335.5</v>
       </c>
       <c r="R3" s="57">
         <v>45841</v>
@@ -6119,9 +6156,15 @@
       <c r="F32" s="10"/>
       <c r="G32" s="10"/>
       <c r="H32" s="9"/>
-      <c r="J32" s="13"/>
-      <c r="K32" s="34"/>
-      <c r="L32" s="30"/>
+      <c r="J32" s="13">
+        <v>45850</v>
+      </c>
+      <c r="K32" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="L32" s="30">
+        <v>50</v>
+      </c>
       <c r="M32" s="67"/>
       <c r="N32" s="73"/>
       <c r="O32" s="9"/>
@@ -6267,7 +6310,7 @@
       <c r="K40" s="10"/>
       <c r="L40" s="40">
         <f>SUBTOTAL(9,L3:L37)</f>
-        <v>4090</v>
+        <v>4140</v>
       </c>
       <c r="M40" s="68"/>
       <c r="N40" s="74"/>
@@ -6307,22 +6350,34 @@
       <c r="P42" s="9"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A43" s="13"/>
-      <c r="B43" s="32"/>
-      <c r="C43" s="16"/>
+      <c r="A43" s="13">
+        <v>45850</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C43" s="16">
+        <v>856</v>
+      </c>
       <c r="L43" s="42"/>
       <c r="M43" s="42"/>
       <c r="N43" s="75"/>
       <c r="O43" s="40"/>
       <c r="P43" s="40">
         <f>SUM(P1:P42)</f>
-        <v>9364.5</v>
+        <v>15664.5</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A44" s="13"/>
-      <c r="B44" s="32"/>
-      <c r="C44" s="9"/>
+      <c r="A44" s="13">
+        <v>45851</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C44" s="9">
+        <v>7295</v>
+      </c>
       <c r="L44" s="42"/>
       <c r="M44" s="4"/>
       <c r="N44" s="59"/>
@@ -6401,7 +6456,7 @@
       <c r="B56" s="10"/>
       <c r="C56" s="40">
         <f>SUBTOTAL(9,C3:C55)</f>
-        <v>163394.5</v>
+        <v>171545.5</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -6410,7 +6465,7 @@
       </c>
       <c r="B60" s="20">
         <f>C56</f>
-        <v>163394.5</v>
+        <v>171545.5</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -6419,7 +6474,7 @@
       </c>
       <c r="B61" s="20">
         <f>SUM(H35,L40,P43)</f>
-        <v>61839.5</v>
+        <v>68189.5</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -6437,7 +6492,7 @@
       </c>
       <c r="B63" s="44">
         <f>SUM(B60:B62)</f>
-        <v>249234</v>
+        <v>263735</v>
       </c>
     </row>
     <row r="1048526" spans="19:19" x14ac:dyDescent="0.25">
@@ -6454,7 +6509,7 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6493,7 +6548,7 @@
       </c>
       <c r="F2" s="61">
         <f>'Cash Out'!C56</f>
-        <v>163394.5</v>
+        <v>171545.5</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -6502,7 +6557,7 @@
       </c>
       <c r="B3" s="61">
         <f>SUM('Cash IN'!B37,'Cash IN'!B38,'Cash IN'!B40,'Cash IN'!B41,'Cash IN'!B42,'Cash IN'!B43)</f>
-        <v>123297.94000000002</v>
+        <v>113474.63</v>
       </c>
       <c r="E3" t="s">
         <v>62</v>
@@ -6518,14 +6573,14 @@
       </c>
       <c r="B4" s="61">
         <f>'Cash IN'!B36</f>
-        <v>45447</v>
+        <v>51748</v>
       </c>
       <c r="E4" t="s">
         <v>64</v>
       </c>
       <c r="F4" s="61">
         <f>'Cash Out'!L40</f>
-        <v>4090</v>
+        <v>4140</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -6541,7 +6596,7 @@
       </c>
       <c r="F5" s="61">
         <f>'Cash Out'!P43</f>
-        <v>9364.5</v>
+        <v>15664.5</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -6560,14 +6615,14 @@
       </c>
       <c r="B7" s="61">
         <f>'Cash IN'!B45</f>
-        <v>0</v>
+        <v>254.79</v>
       </c>
       <c r="E7" t="s">
         <v>69</v>
       </c>
       <c r="F7" s="66">
         <f>SUM(F2:F6)</f>
-        <v>249234</v>
+        <v>263735</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -6576,7 +6631,7 @@
       </c>
       <c r="B8" s="66">
         <f>SUM(B2:B7)</f>
-        <v>189370.27000000002</v>
+        <v>186102.75000000003</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -6585,7 +6640,7 @@
       </c>
       <c r="B9" s="61">
         <f>'Cash IN 6'!B48</f>
-        <v>72377.42</v>
+        <v>85675.92</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -6594,7 +6649,7 @@
       </c>
       <c r="B10" s="66">
         <f>B8-F7</f>
-        <v>-59863.729999999981</v>
+        <v>-77632.249999999971</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -6622,7 +6677,7 @@
       </c>
       <c r="B16" s="47"/>
       <c r="C16" s="61">
-        <v>4955</v>
+        <v>2655</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -6681,7 +6736,7 @@
         <v>44</v>
       </c>
       <c r="C23" s="93">
-        <v>5661.08</v>
+        <v>3491.06</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -6690,7 +6745,7 @@
       </c>
       <c r="C24" s="61">
         <f>SUM(C16:C23)</f>
-        <v>12513.69</v>
+        <v>8043.67</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -6699,7 +6754,7 @@
       </c>
       <c r="C26" s="61">
         <f>B10+B9-C24</f>
-        <v>1.6370904631912708E-11</v>
+        <v>2.7284841053187847E-11</v>
       </c>
     </row>
   </sheetData>

--- a/july2025/Cash cycle.xlsx
+++ b/july2025/Cash cycle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MyFitnessBag\Desktop\myfitnessbag\july2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA18A0F0-3759-4812-A484-CF5E19F48394}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA2BD980-93EB-4F3A-8571-E7927C659E01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="129">
   <si>
     <t>MFB_Delivery</t>
   </si>
@@ -409,6 +409,12 @@
   </si>
   <si>
     <t>bank interest</t>
+  </si>
+  <si>
+    <t>voda</t>
+  </si>
+  <si>
+    <t>loai insta</t>
   </si>
 </sst>
 </file>
@@ -3116,8 +3122,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN56"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView topLeftCell="AB1" workbookViewId="0">
+      <selection activeCell="AJ7" sqref="AJ7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3608,9 +3614,15 @@
       <c r="AC7" s="46"/>
       <c r="AD7" s="12"/>
       <c r="AE7" s="9"/>
-      <c r="AH7" s="10"/>
-      <c r="AI7" s="10"/>
-      <c r="AJ7" s="10"/>
+      <c r="AH7" s="60">
+        <v>45848</v>
+      </c>
+      <c r="AI7" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="AJ7" s="10">
+        <v>1000</v>
+      </c>
       <c r="AL7" s="7">
         <v>45851</v>
       </c>
@@ -3659,9 +3671,15 @@
       <c r="AC8" s="7"/>
       <c r="AD8" s="12"/>
       <c r="AE8" s="9"/>
-      <c r="AH8" s="10"/>
-      <c r="AI8" s="10"/>
-      <c r="AJ8" s="9"/>
+      <c r="AH8" s="60">
+        <v>45851</v>
+      </c>
+      <c r="AI8" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="AJ8" s="9">
+        <v>250</v>
+      </c>
       <c r="AL8" s="7"/>
       <c r="AM8" s="10"/>
       <c r="AN8" s="9"/>
@@ -3706,6 +3724,15 @@
       <c r="AC9" s="7"/>
       <c r="AD9" s="12"/>
       <c r="AE9" s="9"/>
+      <c r="AH9" s="60">
+        <v>45850</v>
+      </c>
+      <c r="AI9" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="AJ9" s="9">
+        <v>1675</v>
+      </c>
       <c r="AL9" s="7"/>
       <c r="AM9" s="10"/>
       <c r="AN9" s="9"/>
@@ -3750,6 +3777,15 @@
       <c r="AC10" s="7"/>
       <c r="AD10" s="12"/>
       <c r="AE10" s="9"/>
+      <c r="AH10" s="60">
+        <v>45851</v>
+      </c>
+      <c r="AI10" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="AJ10" s="10">
+        <v>0</v>
+      </c>
       <c r="AL10" s="7"/>
       <c r="AM10" s="10"/>
       <c r="AN10" s="9"/>
@@ -3790,6 +3826,11 @@
       <c r="AC11" s="7"/>
       <c r="AD11" s="12"/>
       <c r="AE11" s="9"/>
+      <c r="AH11" s="10"/>
+      <c r="AI11" s="10"/>
+      <c r="AJ11" s="9">
+        <v>0</v>
+      </c>
       <c r="AL11" s="7"/>
       <c r="AM11" s="10"/>
       <c r="AN11" s="9"/>
@@ -5008,7 +5049,7 @@
         <v>8</v>
       </c>
       <c r="B44" s="20">
-        <f>AJ8</f>
+        <f>AJ11</f>
         <v>0</v>
       </c>
       <c r="C44"/>
@@ -5191,8 +5232,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A080234-7BCC-4A92-982F-513E7622D516}">
   <dimension ref="A1:T1048526"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+    <sheetView topLeftCell="I1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6509,7 +6550,7 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
